--- a/main/static/records/Grade12.xlsx
+++ b/main/static/records/Grade12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="281">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">ACCOUNTING, BUSINESS AND MANAGEMENT (ABM)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0031</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007158046</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09339166245</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0050</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bien</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">09989680309</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0098</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007158002</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t xml:space="preserve">09184287697</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007158039</t>
   </si>
   <si>
@@ -148,6 +160,9 @@
     <t xml:space="preserve">09483326541</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0042</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007158024</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t xml:space="preserve">09565546216</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0015</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007158017</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t xml:space="preserve">09292252400</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0030</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161202</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t xml:space="preserve">09100257752</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0041</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161221</t>
   </si>
   <si>
@@ -229,6 +253,9 @@
     <t xml:space="preserve">SCIENCE, TECHNOLOGY, ENGINEERING AND MATHEMATICS (STEM)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0043</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161199</t>
   </si>
   <si>
@@ -247,6 +274,9 @@
     <t xml:space="preserve">09293571241</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0060</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161180</t>
   </si>
   <si>
@@ -268,6 +298,9 @@
     <t xml:space="preserve">09480201488</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0024</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161177</t>
   </si>
   <si>
@@ -289,6 +322,9 @@
     <t xml:space="preserve">09485936041</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0084</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161113</t>
   </si>
   <si>
@@ -307,6 +343,9 @@
     <t xml:space="preserve">09094979506</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0065</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161133</t>
   </si>
   <si>
@@ -316,6 +355,9 @@
     <t xml:space="preserve">Gracia</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0064</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bataller</t>
   </si>
   <si>
@@ -334,6 +376,9 @@
     <t xml:space="preserve">09182111585</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0087</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161136</t>
   </si>
   <si>
@@ -358,6 +403,9 @@
     <t xml:space="preserve">GENERAL ACADEMIC STRAND (GAS)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0107</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161155</t>
   </si>
   <si>
@@ -379,6 +427,9 @@
     <t xml:space="preserve">09452840873</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0078</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007161158</t>
   </si>
   <si>
@@ -400,6 +451,9 @@
     <t xml:space="preserve">09104129851</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0066</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950926</t>
   </si>
   <si>
@@ -421,6 +475,9 @@
     <t xml:space="preserve">09064825713</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0046</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950795</t>
   </si>
   <si>
@@ -442,6 +499,9 @@
     <t xml:space="preserve">09304281735</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0058</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jean</t>
   </si>
   <si>
@@ -457,6 +517,9 @@
     <t xml:space="preserve">09481873984</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0059</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950804</t>
   </si>
   <si>
@@ -478,6 +541,9 @@
     <t xml:space="preserve">09301450962</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0061</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950826</t>
   </si>
   <si>
@@ -499,6 +565,9 @@
     <t xml:space="preserve">09100691692</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0053</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arevalo</t>
   </si>
   <si>
@@ -520,6 +589,9 @@
     <t xml:space="preserve">HUMANITIES AND SOCIAL SCIENCES (HUMSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0190</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950817</t>
   </si>
   <si>
@@ -541,6 +613,9 @@
     <t xml:space="preserve">09309716581</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0026</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950883</t>
   </si>
   <si>
@@ -559,6 +634,9 @@
     <t xml:space="preserve">09151667748</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0040</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950870</t>
   </si>
   <si>
@@ -580,6 +658,9 @@
     <t xml:space="preserve">09382931243</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0022</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950861</t>
   </si>
   <si>
@@ -601,12 +682,18 @@
     <t xml:space="preserve">09123326527</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0081</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mark Hejay</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0085</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950848</t>
   </si>
   <si>
@@ -625,6 +712,9 @@
     <t xml:space="preserve">09467495557</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0077</t>
+  </si>
+  <si>
     <t xml:space="preserve">0006950839</t>
   </si>
   <si>
@@ -643,6 +733,9 @@
     <t xml:space="preserve">09482288152</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0093</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denvier</t>
   </si>
   <si>
@@ -661,6 +754,9 @@
     <t xml:space="preserve">TVL - WELDING (GMAW)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0075</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samareta</t>
   </si>
   <si>
@@ -679,6 +775,9 @@
     <t xml:space="preserve">09454883491</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0095</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepolito</t>
   </si>
   <si>
@@ -697,6 +796,9 @@
     <t xml:space="preserve">09274236484</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0039</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buisa</t>
   </si>
   <si>
@@ -715,6 +817,9 @@
     <t xml:space="preserve">09092466724</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tumaliuan</t>
   </si>
   <si>
@@ -733,6 +838,9 @@
     <t xml:space="preserve">09500302294</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0037</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abonita</t>
   </si>
   <si>
@@ -752,6 +860,9 @@
   </si>
   <si>
     <t xml:space="preserve">TVL - ICT COMPUTER SYSTEM SERVICING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-0051</t>
   </si>
 </sst>
 </file>
@@ -975,6 +1086,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1043,23 +1164,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="75.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,917 +1234,1028 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="I9" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>68</v>
+      <c r="I12" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
       <c r="B16" s="12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>111</v>
+      <c r="I20" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="15" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>165</v>
+      <c r="I29" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="12" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="7" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="8" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>243</v>
+        <v>279</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,6 +3339,21 @@
       <c r="H146" s="16"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/main/static/records/Grade12.xlsx
+++ b/main/static/records/Grade12.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">09096776126</t>
   </si>
   <si>
-    <t xml:space="preserve">ACCOUNTING, BUSINESS AND MANAGEMENT (ABM)</t>
+    <t xml:space="preserve">ABM</t>
   </si>
   <si>
     <t xml:space="preserve">17-0031</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">09481823231</t>
   </si>
   <si>
-    <t xml:space="preserve">SCIENCE, TECHNOLOGY, ENGINEERING AND MATHEMATICS (STEM)</t>
+    <t xml:space="preserve">STEM</t>
   </si>
   <si>
     <t xml:space="preserve">17-0043</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">09096848647</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERAL ACADEMIC STRAND (GAS)</t>
+    <t xml:space="preserve">GAS</t>
   </si>
   <si>
     <t xml:space="preserve">17-0107</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">09305725749</t>
   </si>
   <si>
-    <t xml:space="preserve">HUMANITIES AND SOCIAL SCIENCES (HUMSS)</t>
+    <t xml:space="preserve">HUMSS</t>
   </si>
   <si>
     <t xml:space="preserve">18-0190</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">09270257907</t>
   </si>
   <si>
-    <t xml:space="preserve">TVL - WELDING (GMAW)</t>
+    <t xml:space="preserve">Welding</t>
   </si>
   <si>
     <t xml:space="preserve">17-0075</t>
@@ -859,7 +859,7 @@
     <t xml:space="preserve">09468285725</t>
   </si>
   <si>
-    <t xml:space="preserve">TVL - ICT COMPUTER SYSTEM SERVICING</t>
+    <t xml:space="preserve">CSS</t>
   </si>
   <si>
     <t xml:space="preserve">17-0051</t>
@@ -988,13 +988,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1010,7 +1014,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1026,7 +1030,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1034,7 +1038,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1042,7 +1046,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1062,11 +1066,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1074,7 +1078,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1166,21 +1170,21 @@
   </sheetPr>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="74.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="73.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,2141 +1206,2142 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="8" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="16"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="16"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="16"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="16"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="16"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="16"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="16"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="16"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="16"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="16"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="16"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="16"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="16"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="16"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="16"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="16"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="16"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="16"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="16"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="16"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="16"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="16"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="16"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="16"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="16"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="16"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="16"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="16"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="16"/>
+      <c r="A71" s="3"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="16"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="16"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="16"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="16"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="16"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="16"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="16"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="16"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="16"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="16"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="16"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="16"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="16"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="16"/>
+      <c r="A85" s="3"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="16"/>
+      <c r="A86" s="3"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="16"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="16"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="16"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="16"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="16"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="16"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="16"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="16"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="16"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="16"/>
+      <c r="A96" s="3"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="16"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="16"/>
+      <c r="A98" s="3"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="16"/>
+      <c r="A99" s="3"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="16"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="16"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="16"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="16"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="16"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="16"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="16"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="16"/>
+      <c r="A107" s="3"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="16"/>
+      <c r="A108" s="3"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="16"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="16"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="16"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="16"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="16"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="16"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="16"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="16"/>
+      <c r="A116" s="3"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="16"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="16"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="16"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="16"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="16"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="16"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="16"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="16"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="16"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="16"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="16"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="16"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="16"/>
+      <c r="A129" s="3"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="16"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="16"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="16"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="16"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="16"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="16"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="16"/>
+      <c r="A136" s="3"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="16"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="16"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="16"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="16"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="16"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="16"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="16"/>
+      <c r="A143" s="3"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="16"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="16"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2"/>
-      <c r="B146" s="20"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="16"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I15">
